--- a/src/TunePID.xlsx
+++ b/src/TunePID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ventrexautomotivegmbh-my.sharepoint.com/personal/thomas_haberkorn_ventrex_com/Documents/Desktop/VentCon2/VentCon2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4DB114E441178AC67DF45FDE56D3CE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A89E910-1C82-44E7-80DE-D45F290E342C}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DB114E441178AC67DF45FDE56D3CE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6CC0D9-8EC5-491F-92FE-10DA4B372AAC}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>435025</xdr:colOff>
+      <xdr:colOff>450265</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114684</xdr:rowOff>
     </xdr:to>
@@ -371,9 +371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12287</xdr:colOff>
+      <xdr:colOff>4667</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>83950</xdr:rowOff>
+      <xdr:rowOff>80140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -678,69 +678,69 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,74 +762,74 @@
         <v>4</v>
       </c>
       <c r="D20" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="10">
         <f>0.6*D19</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="10">
         <f>1.2*D19/D20</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="10">
         <f>0.075*D19*D20</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="10">
         <f>0.2*D19</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="10">
         <f>0.4*D19/D20</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="10">
         <f>0.0666*D19*D20</f>
-        <v>119.88</v>
+        <v>39.960000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/src/TunePID.xlsx
+++ b/src/TunePID.xlsx
@@ -8,14 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ventrexautomotivegmbh-my.sharepoint.com/personal/thomas_haberkorn_ventrex_com/Documents/Desktop/VentCon2/VentCon2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DB114E441178AC67DF45FDE56D3CE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6CC0D9-8EC5-491F-92FE-10DA4B372AAC}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_AD4DB114E441178AC67DF45FDE56D3CE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7380ADB8-A61D-4157-AF75-1ECFECCCA720}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1000" iterateDelta="9.9999999999999998E-13"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Tabelle1!$D$19:$D$20</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">"0,0001"</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">"0,075"</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Tabelle1!$D$24</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">"0,000001"</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">1050</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -675,72 +704,72 @@
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>1500</v>
+        <v>1750.0000150000001</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,68 +797,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="10">
         <f>0.6*D19</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1050.0000090000001</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="10">
         <f>1.2*D19/D20</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5250.0000449999998</v>
+      </c>
+      <c r="I25">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="10">
         <f>0.075*D19*D20</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>52.500000450000009</v>
+      </c>
+      <c r="I26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="10">
         <f>0.2*D19</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>350.00000300000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="10">
         <f>0.4*D19/D20</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1750.0000150000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="10">
         <f>0.0666*D19*D20</f>
-        <v>39.960000000000008</v>
+        <v>46.620000399600009</v>
       </c>
     </row>
   </sheetData>
